--- a/ModelagemDosProcessosDeNegocio/Lista de eventos - agendar Consulta.xlsx
+++ b/ModelagemDosProcessosDeNegocio/Lista de eventos - agendar Consulta.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tati\Desktop\Pós ES\Modelagem de Negócio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1600192\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11535"/>
   </bookViews>
   <sheets>
-    <sheet name="Agendar Consulta" sheetId="2" r:id="rId1"/>
+    <sheet name="Agendar Consulta 02" sheetId="3" r:id="rId1"/>
+    <sheet name="Agendar Consulta" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,8 +24,166 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Divisão de Controle de Licenças</author>
+  </authors>
+  <commentList>
+    <comment ref="F3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Divisão de Controle de Licenças:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Não previsível, pois o paciente pode ou não solicitar uma consulta</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Divisão de Controle de Licenças:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Previsível, pois so inclui após a confirmação da consulta (evento 2)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Divisão de Controle de Licenças:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Previsível, pois so inclui após a confirmação da consulta (evento 2)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Divisão de Controle de Licenças:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+relativo é quando se tem um prazo.
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Divisão de Controle de Licenças:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Dois dias antes da consulta, é necessário confirmar a consulta junto ao paciente
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Divisão de Controle de Licenças:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Fluxo alternativo</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Externo</t>
   </si>
@@ -108,13 +267,25 @@
   </si>
   <si>
     <t>x(8)</t>
+  </si>
+  <si>
+    <t>Paciente solicita consulta</t>
+  </si>
+  <si>
+    <t>Recepcionista confirma a consulta</t>
+  </si>
+  <si>
+    <t>Recepcionista inclui o agendamento</t>
+  </si>
+  <si>
+    <t>Recepcionista cancela consulta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +307,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -170,7 +354,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -392,11 +576,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -474,6 +671,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -496,7 +696,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -534,7 +734,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -569,23 +769,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -621,26 +804,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -789,11 +955,195 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="16"/>
+      <c r="G1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="17"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="11">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="11">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="11">
+        <v>3</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="11">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="9"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ModelagemDosProcessosDeNegocio/Lista de eventos - agendar Consulta.xlsx
+++ b/ModelagemDosProcessosDeNegocio/Lista de eventos - agendar Consulta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1600192\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1600271\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="31">
   <si>
     <t>Externo</t>
   </si>
@@ -276,9 +276,6 @@
   </si>
   <si>
     <t>Recepcionista inclui o agendamento</t>
-  </si>
-  <si>
-    <t>Recepcionista cancela consulta</t>
   </si>
 </sst>
 </file>
@@ -628,6 +625,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -636,45 +672,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -959,7 +956,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,18 +974,18 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="16"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1025,7 +1022,7 @@
       <c r="A3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="11">
@@ -1045,7 +1042,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21"/>
-      <c r="B4" s="24"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="11">
         <v>2</v>
       </c>
@@ -1063,7 +1060,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
-      <c r="B5" s="27"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="11">
         <v>3</v>
       </c>
@@ -1081,27 +1078,21 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="11">
-        <v>4</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="7"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="I6" s="7"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21"/>
-      <c r="B7" s="24"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="11"/>
       <c r="D7" s="5"/>
       <c r="E7" s="10"/>
@@ -1113,7 +1104,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22"/>
-      <c r="B8" s="26"/>
+      <c r="B8" s="24"/>
       <c r="C8" s="11"/>
       <c r="D8" s="5"/>
       <c r="E8" s="10"/>
@@ -1143,7 +1134,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,18 +1144,18 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="16"/>
-      <c r="G1" s="15" t="s">
+      <c r="F1" s="14"/>
+      <c r="G1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="16"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
@@ -1201,7 +1192,7 @@
       <c r="A3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="11">
@@ -1221,7 +1212,7 @@
     </row>
     <row r="4" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21"/>
-      <c r="B4" s="24"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="11">
         <v>2</v>
       </c>
@@ -1239,7 +1230,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
-      <c r="B5" s="24"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="11">
         <v>3</v>
       </c>
@@ -1257,7 +1248,7 @@
     </row>
     <row r="6" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
-      <c r="B6" s="24"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="11">
         <v>4</v>
       </c>
@@ -1275,7 +1266,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21"/>
-      <c r="B7" s="24"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="11">
         <v>5</v>
       </c>
@@ -1293,7 +1284,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21"/>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="23" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="11">
@@ -1313,7 +1304,7 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21"/>
-      <c r="B9" s="24"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="11">
         <v>7</v>
       </c>
@@ -1331,7 +1322,7 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22"/>
-      <c r="B10" s="26"/>
+      <c r="B10" s="24"/>
       <c r="C10" s="11">
         <v>8</v>
       </c>

--- a/ModelagemDosProcessosDeNegocio/Lista de eventos - agendar Consulta.xlsx
+++ b/ModelagemDosProcessosDeNegocio/Lista de eventos - agendar Consulta.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1600271\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1600192\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -55,6 +55,31 @@
       </text>
     </comment>
     <comment ref="E4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Divisão de Controle de Licenças:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Previsível, pois so inclui após a confirmação da consulta (evento 2)
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -269,20 +294,20 @@
     <t>x(8)</t>
   </si>
   <si>
-    <t>Paciente solicita consulta</t>
-  </si>
-  <si>
-    <t>Recepcionista confirma a consulta</t>
-  </si>
-  <si>
-    <t>Recepcionista inclui o agendamento</t>
+    <t xml:space="preserve">Recepcionista solicita confirmação de consulta </t>
+  </si>
+  <si>
+    <t>Paciente solicita agendamento da consulta</t>
+  </si>
+  <si>
+    <t>Paciente trata o agendamento da consulta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,6 +343,14 @@
       <name val="Segoe UI"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -590,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -671,6 +704,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -956,7 +992,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1054,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>16</v>
       </c>
@@ -1029,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="10" t="s">
@@ -1040,39 +1076,39 @@
       <c r="I3" s="8"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21"/>
       <c r="B4" s="16"/>
       <c r="C4" s="11">
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="H4" s="7" t="s">
+        <v>24</v>
+      </c>
       <c r="I4" s="8"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21"/>
       <c r="B5" s="17"/>
       <c r="C5" s="11">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="6"/>
+      <c r="D5" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="F5" s="6"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="H5" s="7"/>
       <c r="I5" s="8"/>
       <c r="J5" s="9"/>
     </row>
@@ -1125,7 +1161,8 @@
     <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
